--- a/Git確認.xlsx
+++ b/Git確認.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamura.ITCWI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\tamura\api-print\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="2">
   <si>
     <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test111111</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -98,16 +102,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>675930</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161580</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>123621</xdr:rowOff>
+      <xdr:rowOff>47421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -124,7 +128,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1343025" y="209550"/>
+          <a:off x="4381500" y="133350"/>
           <a:ext cx="2761905" cy="1628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -403,10 +407,13 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -425,12 +432,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
